--- a/DATA_goal/Junction_Flooding_998.xlsx
+++ b/DATA_goal/Junction_Flooding_998.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
-    <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
-    <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="5" customWidth="1" min="10" max="10"/>
+    <col width="5" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="27" max="27"/>
+    <col width="5" customWidth="1" min="28" max="28"/>
+    <col width="5" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44979.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.815</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.263</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.771</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.807</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.941</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.232</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.653</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.36</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.363</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.083</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.597</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.223</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.159</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.251</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.431</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.368</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.219</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.924</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.527</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.146</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.789</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.048</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.162</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.789</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.728</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.564</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.528</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.849</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.316</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.381</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44979.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.402</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.131</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.308</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.071</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.203</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.893</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.45</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.909</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.068</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.181</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.991</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.936</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.626</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.557</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.016</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.405</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.677</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.391</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.695</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.735</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.438</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.553</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.929</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.719</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.533</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.549</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.882</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.049</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.247</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.12</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.745</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44979.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.374</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.104</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.274</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>33.378</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.883</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.098</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>42.721</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.615</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.119</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.937</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.385</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.054</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.862</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.031</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.979</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.314</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.024</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.803</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>175.77</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.493</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.105</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.297</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.688</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.027</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.142</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.762</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.336</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.038</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.599</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.155</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44979.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.14</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.86</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.68</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.34</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.46</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
